--- a/va_facility_data_2025-02-20/Janesville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Janesville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Janesville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Janesville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R38118ec59ded4d19bb1e875e90fd5dc1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R53dcb49aac9d4108b76201393c382065"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb876ed03059446bc9b13a1b1e83ceb0e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0f6356f5010c4faf860dd776540504e0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R38cb3206862d43ce8971b0aaffda5958"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R40ae11e8a6f248d08a71c7683822a8d6"/>
   </x:sheets>
 </x:workbook>
 </file>
